--- a/src/results/manually_verified_results/unified_results_14_prompts_absolute_temporal_3_types manual.xlsx
+++ b/src/results/manually_verified_results/unified_results_14_prompts_absolute_temporal_3_types manual.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roeeesquira/PycharmProjects/possibilities/src/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roeeesquira/PycharmProjects/possibilities/src/results/manually_verified_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952351AC-5B90-CC4E-B5FD-5D3EA295CB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05126E9D-B78C-AA49-AD3F-7CBC62CB2105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>model_reply</t>
   </si>
   <si>
-    <t>is_answer_in_reply</t>
-  </si>
-  <si>
     <t>prompt</t>
   </si>
   <si>
@@ -637,6 +634,9 @@
     <t>The answer is: True.
 Explanation: 
 Text 1 states that the speaker had a terrible salad and that it was a chicken salad they ate yesterday. Text 2 combines these two pieces of information to conclude that the speaker had a terrible chicken salad yesterday. Since Text 2 is a logical conclusion based on the information provided in Text 1, the relationship between the two texts is True.</t>
+  </si>
+  <si>
+    <t>success</t>
   </si>
 </sst>
 </file>
@@ -1008,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1042,2194 +1042,2194 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
         <v>17</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
         <v>21</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
         <v>23</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
       <c r="F6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
         <v>25</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
         <v>28</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
       <c r="F9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
         <v>30</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
         <v>33</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
       <c r="F12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
         <v>35</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
         <v>15</v>
       </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
       <c r="F15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
         <v>41</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
         <v>19</v>
       </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="F16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
         <v>44</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
         <v>15</v>
       </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
       <c r="F18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
         <v>46</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
         <v>19</v>
       </c>
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
         <v>49</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
         <v>15</v>
       </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
       <c r="F21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
         <v>51</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
         <v>19</v>
       </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="F22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
         <v>54</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
         <v>15</v>
       </c>
-      <c r="D24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" t="s">
-        <v>16</v>
-      </c>
       <c r="F24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
         <v>56</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
         <v>19</v>
       </c>
-      <c r="D25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="F25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
         <v>60</v>
-      </c>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
         <v>15</v>
       </c>
-      <c r="D27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" t="s">
-        <v>16</v>
-      </c>
       <c r="F27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
         <v>62</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
         <v>19</v>
       </c>
-      <c r="D28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="F28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
         <v>66</v>
-      </c>
-      <c r="C29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
         <v>15</v>
       </c>
-      <c r="D30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" t="s">
-        <v>16</v>
-      </c>
       <c r="F30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
         <v>68</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
         <v>19</v>
       </c>
-      <c r="D31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="F31" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
         <v>72</v>
-      </c>
-      <c r="C32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
         <v>15</v>
       </c>
-      <c r="D33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" t="s">
-        <v>16</v>
-      </c>
       <c r="F33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
         <v>74</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
         <v>19</v>
       </c>
-      <c r="D34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="F34" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
         <v>77</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
         <v>15</v>
       </c>
-      <c r="D36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" t="s">
-        <v>16</v>
-      </c>
       <c r="F36" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
         <v>79</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
         <v>19</v>
       </c>
-      <c r="D37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="F37" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
         <v>82</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
         <v>15</v>
       </c>
-      <c r="D39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" t="s">
-        <v>16</v>
-      </c>
       <c r="F39" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
         <v>84</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
         <v>19</v>
       </c>
-      <c r="D40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="F40" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
         <v>87</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
         <v>15</v>
       </c>
-      <c r="D42" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" t="s">
-        <v>16</v>
-      </c>
       <c r="F42" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" t="s">
         <v>89</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
         <v>19</v>
       </c>
-      <c r="D43" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="F43" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="C44" t="s">
         <v>9</v>
       </c>
-      <c r="C44" t="s">
-        <v>10</v>
-      </c>
       <c r="D44" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" t="s">
         <v>15</v>
       </c>
-      <c r="D45" t="s">
-        <v>92</v>
-      </c>
-      <c r="E45" t="s">
-        <v>16</v>
-      </c>
       <c r="F45" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="C46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" t="s">
         <v>19</v>
       </c>
-      <c r="D46" t="s">
-        <v>92</v>
-      </c>
-      <c r="E46" t="s">
-        <v>20</v>
-      </c>
       <c r="F46" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
         <v>23</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" t="s">
-        <v>92</v>
-      </c>
-      <c r="E47" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" t="s">
         <v>15</v>
       </c>
-      <c r="D48" t="s">
-        <v>92</v>
-      </c>
-      <c r="E48" t="s">
-        <v>16</v>
-      </c>
       <c r="F48" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" t="s">
         <v>19</v>
       </c>
-      <c r="D49" t="s">
-        <v>92</v>
-      </c>
-      <c r="E49" t="s">
-        <v>20</v>
-      </c>
       <c r="F49" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>91</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
         <v>28</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" t="s">
-        <v>92</v>
-      </c>
-      <c r="E50" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" t="s">
+        <v>91</v>
+      </c>
+      <c r="E51" t="s">
         <v>15</v>
       </c>
-      <c r="D51" t="s">
-        <v>92</v>
-      </c>
-      <c r="E51" t="s">
-        <v>16</v>
-      </c>
       <c r="F51" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" t="s">
         <v>19</v>
       </c>
-      <c r="D52" t="s">
-        <v>92</v>
-      </c>
-      <c r="E52" t="s">
-        <v>20</v>
-      </c>
       <c r="F52" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" t="s">
+        <v>91</v>
+      </c>
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" t="s">
         <v>33</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" t="s">
-        <v>92</v>
-      </c>
-      <c r="E53" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="144" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E54" t="s">
         <v>15</v>
       </c>
-      <c r="D54" t="s">
-        <v>92</v>
-      </c>
-      <c r="E54" t="s">
-        <v>16</v>
-      </c>
       <c r="F54" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" t="s">
+        <v>91</v>
+      </c>
+      <c r="E55" t="s">
         <v>19</v>
       </c>
-      <c r="D55" t="s">
-        <v>92</v>
-      </c>
-      <c r="E55" t="s">
-        <v>20</v>
-      </c>
       <c r="F55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s">
+        <v>91</v>
+      </c>
+      <c r="E56" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" t="s">
         <v>39</v>
-      </c>
-      <c r="C56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" t="s">
-        <v>92</v>
-      </c>
-      <c r="E56" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" t="s">
+        <v>91</v>
+      </c>
+      <c r="E57" t="s">
         <v>15</v>
       </c>
-      <c r="D57" t="s">
-        <v>92</v>
-      </c>
-      <c r="E57" t="s">
-        <v>16</v>
-      </c>
       <c r="F57" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="C58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" t="s">
+        <v>91</v>
+      </c>
+      <c r="E58" t="s">
         <v>19</v>
       </c>
-      <c r="D58" t="s">
-        <v>92</v>
-      </c>
-      <c r="E58" t="s">
-        <v>20</v>
-      </c>
       <c r="F58" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" t="s">
+        <v>91</v>
+      </c>
+      <c r="E59" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59" t="s">
         <v>44</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C59" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" t="s">
-        <v>92</v>
-      </c>
-      <c r="E59" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="144" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s">
+        <v>91</v>
+      </c>
+      <c r="E60" t="s">
         <v>15</v>
       </c>
-      <c r="D60" t="s">
-        <v>92</v>
-      </c>
-      <c r="E60" t="s">
-        <v>16</v>
-      </c>
       <c r="F60" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" t="s">
+        <v>91</v>
+      </c>
+      <c r="E61" t="s">
         <v>19</v>
       </c>
-      <c r="D61" t="s">
-        <v>92</v>
-      </c>
-      <c r="E61" t="s">
-        <v>20</v>
-      </c>
       <c r="F61" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" t="s">
+        <v>91</v>
+      </c>
+      <c r="E62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G62" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62" t="s">
         <v>49</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C62" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62" t="s">
-        <v>92</v>
-      </c>
-      <c r="E62" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="144" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" t="s">
+        <v>91</v>
+      </c>
+      <c r="E63" t="s">
         <v>15</v>
       </c>
-      <c r="D63" t="s">
-        <v>92</v>
-      </c>
-      <c r="E63" t="s">
-        <v>16</v>
-      </c>
       <c r="F63" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C64" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" t="s">
+        <v>91</v>
+      </c>
+      <c r="E64" t="s">
         <v>19</v>
       </c>
-      <c r="D64" t="s">
-        <v>92</v>
-      </c>
-      <c r="E64" t="s">
-        <v>20</v>
-      </c>
       <c r="F64" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
+        <v>91</v>
+      </c>
+      <c r="E65" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G65" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65" t="s">
         <v>54</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C65" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65" t="s">
-        <v>92</v>
-      </c>
-      <c r="E65" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" t="s">
+        <v>91</v>
+      </c>
+      <c r="E66" t="s">
         <v>15</v>
       </c>
-      <c r="D66" t="s">
-        <v>92</v>
-      </c>
-      <c r="E66" t="s">
-        <v>16</v>
-      </c>
       <c r="F66" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C67" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" t="s">
+        <v>91</v>
+      </c>
+      <c r="E67" t="s">
         <v>19</v>
       </c>
-      <c r="D67" t="s">
-        <v>92</v>
-      </c>
-      <c r="E67" t="s">
-        <v>20</v>
-      </c>
       <c r="F67" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" t="s">
+        <v>91</v>
+      </c>
+      <c r="E68" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G68" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68" t="s">
         <v>60</v>
-      </c>
-      <c r="C68" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68" t="s">
-        <v>92</v>
-      </c>
-      <c r="E68" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="144" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="C69" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" t="s">
+        <v>91</v>
+      </c>
+      <c r="E69" t="s">
         <v>15</v>
       </c>
-      <c r="D69" t="s">
-        <v>92</v>
-      </c>
-      <c r="E69" t="s">
-        <v>16</v>
-      </c>
       <c r="F69" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="C70" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" t="s">
+        <v>91</v>
+      </c>
+      <c r="E70" t="s">
         <v>19</v>
       </c>
-      <c r="D70" t="s">
-        <v>92</v>
-      </c>
-      <c r="E70" t="s">
-        <v>20</v>
-      </c>
       <c r="F70" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G71" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71" t="s">
         <v>66</v>
-      </c>
-      <c r="C71" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" t="s">
-        <v>92</v>
-      </c>
-      <c r="E71" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="144" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="C72" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" t="s">
         <v>15</v>
       </c>
-      <c r="D72" t="s">
-        <v>92</v>
-      </c>
-      <c r="E72" t="s">
-        <v>16</v>
-      </c>
       <c r="F72" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="C73" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" t="s">
         <v>19</v>
       </c>
-      <c r="D73" t="s">
-        <v>92</v>
-      </c>
-      <c r="E73" t="s">
-        <v>20</v>
-      </c>
       <c r="F73" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" t="s">
+        <v>91</v>
+      </c>
+      <c r="E74" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G74" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74" t="s">
         <v>72</v>
-      </c>
-      <c r="C74" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" t="s">
-        <v>92</v>
-      </c>
-      <c r="E74" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="144" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="C75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" t="s">
         <v>15</v>
       </c>
-      <c r="D75" t="s">
-        <v>92</v>
-      </c>
-      <c r="E75" t="s">
-        <v>16</v>
-      </c>
       <c r="F75" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="C76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" t="s">
+        <v>91</v>
+      </c>
+      <c r="E76" t="s">
         <v>19</v>
       </c>
-      <c r="D76" t="s">
-        <v>92</v>
-      </c>
-      <c r="E76" t="s">
-        <v>20</v>
-      </c>
       <c r="F76" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C77" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" t="s">
+        <v>91</v>
+      </c>
+      <c r="E77" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G77" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77" t="s">
         <v>77</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C77" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" t="s">
-        <v>92</v>
-      </c>
-      <c r="E77" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="144" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" t="s">
+        <v>91</v>
+      </c>
+      <c r="E78" t="s">
         <v>15</v>
       </c>
-      <c r="D78" t="s">
-        <v>92</v>
-      </c>
-      <c r="E78" t="s">
-        <v>16</v>
-      </c>
       <c r="F78" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C79" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" t="s">
+        <v>91</v>
+      </c>
+      <c r="E79" t="s">
         <v>19</v>
       </c>
-      <c r="D79" t="s">
-        <v>92</v>
-      </c>
-      <c r="E79" t="s">
-        <v>20</v>
-      </c>
       <c r="F79" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" t="s">
+        <v>91</v>
+      </c>
+      <c r="E80" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80" t="s">
         <v>82</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C80" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80" t="s">
-        <v>92</v>
-      </c>
-      <c r="E80" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="144" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C81" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" t="s">
+        <v>91</v>
+      </c>
+      <c r="E81" t="s">
         <v>15</v>
       </c>
-      <c r="D81" t="s">
-        <v>92</v>
-      </c>
-      <c r="E81" t="s">
-        <v>16</v>
-      </c>
       <c r="F81" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" t="s">
+        <v>91</v>
+      </c>
+      <c r="E82" t="s">
         <v>19</v>
       </c>
-      <c r="D82" t="s">
-        <v>92</v>
-      </c>
-      <c r="E82" t="s">
-        <v>20</v>
-      </c>
       <c r="F82" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" t="s">
+        <v>91</v>
+      </c>
+      <c r="E83" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G83" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83" t="s">
         <v>87</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C83" t="s">
-        <v>10</v>
-      </c>
-      <c r="D83" t="s">
-        <v>92</v>
-      </c>
-      <c r="E83" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="144" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" t="s">
+        <v>91</v>
+      </c>
+      <c r="E84" t="s">
         <v>15</v>
       </c>
-      <c r="D84" t="s">
-        <v>92</v>
-      </c>
-      <c r="E84" t="s">
-        <v>16</v>
-      </c>
       <c r="F84" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C85" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" t="s">
+        <v>91</v>
+      </c>
+      <c r="E85" t="s">
         <v>19</v>
       </c>
-      <c r="D85" t="s">
-        <v>92</v>
-      </c>
-      <c r="E85" t="s">
-        <v>20</v>
-      </c>
       <c r="F85" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
